--- a/biology/Zoologie/Hersilia/Hersilia.xlsx
+++ b/biology/Zoologie/Hersilia/Hersilia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hersilia est un genre d'araignées aranéomorphes de la famille des Hersiliidae[1]. Il est constitué de quelque 80 espèces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hersilia est un genre d'araignées aranéomorphes de la famille des Hersiliidae. Il est constitué de quelque 80 espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, dans le Sud de l'Asie et dans l'Ouest de l'Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, dans le Sud de l'Asie et dans l'Ouest de l'Océanie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les araignées Hersilia vivent sur les écorces et sur les pierres, essentiellement dans les forêts tropicales.
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'Araignées généralement grisâtres à région céphalique du prosoma surélevée, pattes très longues et filières supérieures démesurées excédant parfois la longueur du céphalothorax et de l'abdomen réunis, leur caractéristique essentielle. Elle a huit yeux.
 </t>
@@ -604,9 +622,11 @@
           <t>Anatomie interne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle présente un développement considérable de l'intestin moyen dans le céphalothorax, au point d'en occuper une très grande partie. Ce thoracentéron appartient donc au type "complexe" de Millot[2]. Tous les diverticules sont hypertrophiés, aussi bien les antérieurs que les latéraux. Ils se répartissent en trois plans plus ou moins superposés, édifient un lacis sous la masse nerveuse, entourent les nerfs optiques, atteignent le large "auvent" du clypeus ou bandeau et envahissent même la quasi-totalité du rostre. Leur paroi est caractérisée par son extrême richesse en cellules à guanine (guan(in)ocytes)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle présente un développement considérable de l'intestin moyen dans le céphalothorax, au point d'en occuper une très grande partie. Ce thoracentéron appartient donc au type "complexe" de Millot. Tous les diverticules sont hypertrophiés, aussi bien les antérieurs que les latéraux. Ils se répartissent en trois plans plus ou moins superposés, édifient un lacis sous la masse nerveuse, entourent les nerfs optiques, atteignent le large "auvent" du clypeus ou bandeau et envahissent même la quasi-totalité du rostre. Leur paroi est caractérisée par son extrême richesse en cellules à guanine (guan(in)ocytes).
 </t>
         </is>
       </c>
@@ -635,10 +655,12 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne tissant pas de toile, elles se tiennent au repos plaquées immobiles contre les troncs d'arbre ou les murs. En action, elles manifestent une extrême rapidité, qu'elles courent pour se dérober, chasser et tourner ensuite autour de leurs proies qu'elles emmaillotent avec la soie des filières supérieures comme l'a figuré Bristowe en 1930.
-Les sacs à œufs de cette araignée sont fixés à l'écorce des arbres et ils sont gardés par les femelles[4].
+Les sacs à œufs de cette araignée sont fixés à l'écorce des arbres et ils sont gardés par les femelles.
 </t>
         </is>
       </c>
@@ -667,9 +689,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 21/01/2023)[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 21/01/2023) :
 Hersilia albicomis Simon, 1887
 Hersilia albinota Baehr &amp; Baehr, 1993
 Hersilia albomaculata Wang &amp; Yin, 1985
@@ -751,7 +775,7 @@
 Hersilia wraniki Rheims, Brescovit &amp; van Harten, 2004
 Hersilia xieae Yin, 2012
 Hersilia yaeyamaensis Tanikawa, 1999
-Selon World Spider Catalog (version 20.5, 2020)[6] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Hersilia aquisextana Gourret, 1887
 † Hersilia longipes Giebel, 1856
 † Hersilia miranda C. L. Koch &amp; Berendt, 1854</t>
@@ -782,7 +806,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Audouin en 1826.
 </t>
@@ -813,7 +839,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Audouin, 1826 : « Explication sommaire des planches d'arachnides de l'Égypte et de la Syrie publiées par J. C. Savigny, membre de l'Institut; offrant un exposé des caractères naturels des genres avec la distinction des espèces. » Description de l'Égypte, ou Recueil des observations et des recherches qui ont été faites en Égypte pendant l'expédition de l'armée française, Histoire Naturelle, tome 1, partie 4, p. 99-186.</t>
         </is>
